--- a/processing/final/benchmark_memcached/benchmark_memcached.xlsx
+++ b/processing/final/benchmark_memcached/benchmark_memcached.xlsx
@@ -233,8 +233,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -252,7 +252,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -342,7 +354,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>data!$D$5:$D$22</c:f>
               <c:numCache>
@@ -404,8 +416,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>data!$E$5:$E$13</c:f>
               <c:numCache>
@@ -440,7 +452,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -459,7 +471,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -549,7 +573,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>data!$D$5:$D$22</c:f>
               <c:numCache>
@@ -611,8 +635,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>data!$E$14:$E$22</c:f>
               <c:numCache>
@@ -647,7 +671,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -658,12 +682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1006902512"/>
-        <c:axId val="1006905072"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1006902512"/>
+        <c:axId val="-509207056"/>
+        <c:axId val="-699654736"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-509207056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -767,15 +790,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006905072"/>
+        <c:crossAx val="-699654736"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1006905072"/>
+        <c:axId val="-699654736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,9 +906,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006902512"/>
+        <c:crossAx val="-509207056"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1054,8 +1074,8 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -1073,7 +1093,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -1163,7 +1195,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>data!$D$5:$D$22</c:f>
               <c:numCache>
@@ -1225,8 +1257,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>data!$G$5:$G$13</c:f>
               <c:numCache>
@@ -1261,7 +1293,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
@@ -1280,7 +1312,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -1370,7 +1414,7 @@
               <a:effectLst/>
             </c:spPr>
           </c:errBars>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>data!$D$5:$D$22</c:f>
               <c:numCache>
@@ -1432,8 +1476,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>data!$G$14:$G$22</c:f>
               <c:numCache>
@@ -1468,7 +1512,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1479,12 +1523,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1006776320"/>
-        <c:axId val="1006778864"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1006776320"/>
+        <c:axId val="-510310928"/>
+        <c:axId val="-699606704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-510310928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1588,15 +1631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006778864"/>
+        <c:crossAx val="-699606704"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="1006778864"/>
+        <c:axId val="-699606704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1702,9 +1742,9 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1006776320"/>
+        <c:crossAx val="-510310928"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3731,8 +3771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R36" sqref="R36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/processing/final/benchmark_memcached/benchmark_memcached.xlsx
+++ b/processing/final/benchmark_memcached/benchmark_memcached.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>BENCHMARK_MEMCACHED</t>
   </si>
@@ -102,6 +102,15 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>Total clients</t>
+  </si>
+  <si>
+    <t>Response Time based on interactive law</t>
+  </si>
+  <si>
+    <t>Identity function</t>
   </si>
 </sst>
 </file>
@@ -356,63 +365,36 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$D$5:$D$22</c:f>
+              <c:f>data!$D$25:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56.0</c:v>
+                  <c:v>336.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,63 +557,36 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$D$5:$D$22</c:f>
+              <c:f>data!$D$25:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56.0</c:v>
+                  <c:v>336.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -682,11 +637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-509207056"/>
-        <c:axId val="-699654736"/>
+        <c:axId val="-2102835984"/>
+        <c:axId val="-2102832592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-509207056"/>
+        <c:axId val="-2102835984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,11 +668,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Total</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of clients per thread</a:t>
+                  <a:t> n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>umber</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of clients</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -790,12 +753,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-699654736"/>
+        <c:crossAx val="-2102832592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-699654736"/>
+        <c:axId val="-2102832592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -906,7 +869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-509207056"/>
+        <c:crossAx val="-2102835984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1197,63 +1160,36 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$D$5:$D$22</c:f>
+              <c:f>data!$D$25:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56.0</c:v>
+                  <c:v>336.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,63 +1352,36 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$D$5:$D$22</c:f>
+              <c:f>data!$D$25:$D$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="18"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>2.0</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.0</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.0</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.0</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24.0</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32.0</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.0</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48.0</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56.0</c:v>
+                  <c:v>336.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,11 +1432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-510310928"/>
-        <c:axId val="-699606704"/>
+        <c:axId val="2129868736"/>
+        <c:axId val="2130675472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-510310928"/>
+        <c:axId val="2129868736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1554,11 +1463,19 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Number</a:t>
+                  <a:t>Total</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of clients per thread</a:t>
+                  <a:t> n</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>umber</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of clients</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1631,12 +1548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-699606704"/>
+        <c:crossAx val="2130675472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-699606704"/>
+        <c:axId val="2130675472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1742,7 +1659,649 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-510310928"/>
+        <c:crossAx val="2129868736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Interactive Law</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Read</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$G$5:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.11627777778</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.18365277778</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.35427777778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.67893055556</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13.1542083333</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.2843194444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.3237083333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26.5680833333</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31.099625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$AA$5:$AA$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.090491482239188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.157132092888975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.289224811986862</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.628735186188544</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.94919389773119</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17.25911215956067</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.76473340755985</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25.95751184923325</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.31216568855396</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Write</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$G$14:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.01597222222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36397222222</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.13558333333</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.96073611111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.59363888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.40543055556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.31194444444</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.2012222222</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.3088888889</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$AA$14:$AA$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.984314537710525</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.335593949761885</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.11455723979795</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.940531496293954</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.570066308931736</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.368773702058627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.258805308715102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.13862104130783</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.22537421873788</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Identity function</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="70AD47"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>data!$N$66:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>data!$N$66:$N$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2130090224"/>
+        <c:axId val="2130618720"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2130090224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency from interactive law (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130618720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2130618720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency measured</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> by clients</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130090224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1903,6 +2462,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -2935,20 +3534,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2969,16 +4084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>311150</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2994,6 +4109,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3767,22 +4914,277 @@
 </a:themeOverride>
 </file>
 
+<file path=xl/theme/themeOverride3.xml><?xml version="1.0" encoding="utf-8"?>
+<a:themeOverride xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <a:clrScheme name="Office">
+    <a:dk1>
+      <a:sysClr val="windowText" lastClr="000000"/>
+    </a:dk1>
+    <a:lt1>
+      <a:sysClr val="window" lastClr="FFFFFF"/>
+    </a:lt1>
+    <a:dk2>
+      <a:srgbClr val="44546A"/>
+    </a:dk2>
+    <a:lt2>
+      <a:srgbClr val="E7E6E6"/>
+    </a:lt2>
+    <a:accent1>
+      <a:srgbClr val="4472C4"/>
+    </a:accent1>
+    <a:accent2>
+      <a:srgbClr val="ED7D31"/>
+    </a:accent2>
+    <a:accent3>
+      <a:srgbClr val="A5A5A5"/>
+    </a:accent3>
+    <a:accent4>
+      <a:srgbClr val="FFC000"/>
+    </a:accent4>
+    <a:accent5>
+      <a:srgbClr val="5B9BD5"/>
+    </a:accent5>
+    <a:accent6>
+      <a:srgbClr val="70AD47"/>
+    </a:accent6>
+    <a:hlink>
+      <a:srgbClr val="0563C1"/>
+    </a:hlink>
+    <a:folHlink>
+      <a:srgbClr val="954F72"/>
+    </a:folHlink>
+  </a:clrScheme>
+  <a:fontScheme name="Office">
+    <a:majorFont>
+      <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic Light"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="DengXian Light"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Times New Roman"/>
+      <a:font script="Hebr" typeface="Times New Roman"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="MoolBoran"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Times New Roman"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:majorFont>
+    <a:minorFont>
+      <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+      <a:ea typeface=""/>
+      <a:cs typeface=""/>
+      <a:font script="Jpan" typeface="Yu Gothic"/>
+      <a:font script="Hang" typeface="맑은 고딕"/>
+      <a:font script="Hans" typeface="DengXian"/>
+      <a:font script="Hant" typeface="新細明體"/>
+      <a:font script="Arab" typeface="Arial"/>
+      <a:font script="Hebr" typeface="Arial"/>
+      <a:font script="Thai" typeface="Tahoma"/>
+      <a:font script="Ethi" typeface="Nyala"/>
+      <a:font script="Beng" typeface="Vrinda"/>
+      <a:font script="Gujr" typeface="Shruti"/>
+      <a:font script="Khmr" typeface="DaunPenh"/>
+      <a:font script="Knda" typeface="Tunga"/>
+      <a:font script="Guru" typeface="Raavi"/>
+      <a:font script="Cans" typeface="Euphemia"/>
+      <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+      <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+      <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+      <a:font script="Thaa" typeface="MV Boli"/>
+      <a:font script="Deva" typeface="Mangal"/>
+      <a:font script="Telu" typeface="Gautami"/>
+      <a:font script="Taml" typeface="Latha"/>
+      <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+      <a:font script="Orya" typeface="Kalinga"/>
+      <a:font script="Mlym" typeface="Kartika"/>
+      <a:font script="Laoo" typeface="DokChampa"/>
+      <a:font script="Sinh" typeface="Iskoola Pota"/>
+      <a:font script="Mong" typeface="Mongolian Baiti"/>
+      <a:font script="Viet" typeface="Arial"/>
+      <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      <a:font script="Geor" typeface="Sylfaen"/>
+    </a:minorFont>
+  </a:fontScheme>
+  <a:fmtScheme name="Office">
+    <a:fillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:satMod val="103000"/>
+              <a:lumMod val="102000"/>
+              <a:tint val="94000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:satMod val="110000"/>
+              <a:lumMod val="100000"/>
+              <a:shade val="100000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="99000"/>
+              <a:satMod val="120000"/>
+              <a:shade val="78000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:fillStyleLst>
+    <a:lnStyleLst>
+      <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="solid"/>
+        <a:miter lim="800000"/>
+      </a:ln>
+    </a:lnStyleLst>
+    <a:effectStyleLst>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst/>
+      </a:effectStyle>
+      <a:effectStyle>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="63000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:effectStyle>
+    </a:effectStyleLst>
+    <a:bgFillStyleLst>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:tint val="95000"/>
+          <a:satMod val="170000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:tint val="93000"/>
+              <a:satMod val="150000"/>
+              <a:shade val="98000"/>
+              <a:lumMod val="102000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:tint val="98000"/>
+              <a:satMod val="130000"/>
+              <a:shade val="90000"/>
+              <a:lumMod val="103000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:shade val="63000"/>
+              <a:satMod val="120000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </a:bgFillStyleLst>
+  </a:fmtScheme>
+</a:themeOverride>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X22"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="Q86" sqref="Q86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="24" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3852,8 +5254,11 @@
       <c r="X4" t="s">
         <v>23</v>
       </c>
+      <c r="AA4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -3923,8 +5328,12 @@
       <c r="X5">
         <v>0</v>
       </c>
+      <c r="AA5">
+        <f>D25/E5*1000</f>
+        <v>1.0904914822391878</v>
+      </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -3994,8 +5403,12 @@
       <c r="X6">
         <v>0</v>
       </c>
+      <c r="AA6">
+        <f t="shared" ref="AA6:AA13" si="0">D26/E6*1000</f>
+        <v>2.1571320928889754</v>
+      </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -4065,8 +5478,12 @@
       <c r="X7">
         <v>0</v>
       </c>
+      <c r="AA7">
+        <f t="shared" si="0"/>
+        <v>4.2892248119868626</v>
+      </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -4136,8 +5553,12 @@
       <c r="X8">
         <v>0</v>
       </c>
+      <c r="AA8">
+        <f t="shared" si="0"/>
+        <v>8.6287351861885444</v>
+      </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -4207,8 +5628,12 @@
       <c r="X9">
         <v>0</v>
       </c>
+      <c r="AA9">
+        <f t="shared" si="0"/>
+        <v>12.949193897731192</v>
+      </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -4278,8 +5703,12 @@
       <c r="X10">
         <v>0</v>
       </c>
+      <c r="AA10">
+        <f t="shared" si="0"/>
+        <v>17.259112159560669</v>
+      </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -4349,8 +5778,12 @@
       <c r="X11">
         <v>0</v>
       </c>
+      <c r="AA11">
+        <f t="shared" si="0"/>
+        <v>20.764733407559849</v>
+      </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -4420,8 +5853,12 @@
       <c r="X12">
         <v>0</v>
       </c>
+      <c r="AA12">
+        <f t="shared" si="0"/>
+        <v>25.957511849233253</v>
+      </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>6.9444444444444447E-4</v>
       </c>
@@ -4491,8 +5928,12 @@
       <c r="X13">
         <v>0</v>
       </c>
+      <c r="AA13">
+        <f t="shared" si="0"/>
+        <v>30.312165688553961</v>
+      </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4562,8 +6003,12 @@
       <c r="X14">
         <v>0</v>
       </c>
+      <c r="AA14">
+        <f t="shared" ref="AA14:AA22" si="1">D25/E14*1000</f>
+        <v>0.98431453771052546</v>
+      </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4633,8 +6078,12 @@
       <c r="X15">
         <v>0</v>
       </c>
+      <c r="AA15">
+        <f t="shared" si="1"/>
+        <v>1.3355939497618849</v>
+      </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4704,8 +6153,12 @@
       <c r="X16">
         <v>0</v>
       </c>
+      <c r="AA16">
+        <f t="shared" si="1"/>
+        <v>2.1145572397979495</v>
+      </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4775,8 +6228,12 @@
       <c r="X17">
         <v>0</v>
       </c>
+      <c r="AA17">
+        <f t="shared" si="1"/>
+        <v>3.9405314962939544</v>
+      </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4846,8 +6303,12 @@
       <c r="X18">
         <v>0</v>
       </c>
+      <c r="AA18">
+        <f t="shared" si="1"/>
+        <v>5.5700663089317368</v>
+      </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4917,8 +6378,12 @@
       <c r="X19">
         <v>0</v>
       </c>
+      <c r="AA19">
+        <f t="shared" si="1"/>
+        <v>7.3687737020586273</v>
+      </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -4988,8 +6453,12 @@
       <c r="X20">
         <v>0</v>
       </c>
+      <c r="AA20">
+        <f t="shared" si="1"/>
+        <v>9.2588053087151021</v>
+      </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5059,8 +6528,12 @@
       <c r="X21">
         <v>0</v>
       </c>
+      <c r="AA21">
+        <f t="shared" si="1"/>
+        <v>11.138621041307834</v>
+      </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -5129,6 +6602,84 @@
       </c>
       <c r="X22">
         <v>0</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" si="1"/>
+        <v>13.225374218737882</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <f>6 * D14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f t="shared" ref="D26:D33" si="2">6 * D15</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <f t="shared" si="2"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="65" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N65" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="66" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/processing/final/benchmark_memcached/benchmark_memcached.xlsx
+++ b/processing/final/benchmark_memcached/benchmark_memcached.xlsx
@@ -637,11 +637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2102835984"/>
-        <c:axId val="-2102832592"/>
+        <c:axId val="854152624"/>
+        <c:axId val="854177072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2102835984"/>
+        <c:axId val="854152624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,12 +753,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102832592"/>
+        <c:crossAx val="854177072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2102832592"/>
+        <c:axId val="854177072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +869,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2102835984"/>
+        <c:crossAx val="854152624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -986,11 +986,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Latency</a:t>
+              <a:t>Response</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
+              <a:t> time </a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
@@ -1432,11 +1432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129868736"/>
-        <c:axId val="2130675472"/>
+        <c:axId val="1060131952"/>
+        <c:axId val="1060158976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129868736"/>
+        <c:axId val="1060131952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1548,12 +1548,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130675472"/>
+        <c:crossAx val="1060158976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130675472"/>
+        <c:axId val="1060158976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,8 +1593,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Response time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Latency (ms)</a:t>
+                  <a:t>(ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1629,6 +1639,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1659,7 +1670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2129868736"/>
+        <c:crossAx val="1060131952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2079,11 +2090,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130090224"/>
-        <c:axId val="2130618720"/>
+        <c:axId val="854202272"/>
+        <c:axId val="854205664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130090224"/>
+        <c:axId val="854202272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2109,8 +2120,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Response time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Latency from interactive law (ms)</a:t>
+                  <a:t>from interactive law (ms)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2182,12 +2203,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130618720"/>
+        <c:crossAx val="854205664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130618720"/>
+        <c:axId val="854205664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,8 +2248,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Response time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t> </a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Latency measured</a:t>
+                  <a:t>measured</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
@@ -2301,7 +2332,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2130090224"/>
+        <c:crossAx val="854202272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5170,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="Q86" sqref="Q86"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
